--- a/StoreManagement/ExcelSheets/stamp.xlsx
+++ b/StoreManagement/ExcelSheets/stamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\StoreManagement\StoreManagement\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A208763E-EA2A-45E9-9E41-4F7A062C6651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3FDEDF-CF16-4564-8AB1-400EB6C69A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>www.assistant.com.vn</t>
   </si>
   <si>
-    <t>THÙNG PHỤ LIỆU</t>
+    <t>KHUNG KỆ</t>
   </si>
 </sst>
 </file>
@@ -167,16 +167,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>607854</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485390</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>745149</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622685</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
+      <xdr:rowOff>53189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -205,8 +205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6530672" y="225136"/>
-          <a:ext cx="795386" cy="710045"/>
+          <a:off x="5710533" y="160810"/>
+          <a:ext cx="790438" cy="722415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -233,7 +233,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD082840-187A-4C49-8046-8EE401F4D966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA5DC16-299F-4C54-962D-308051B09ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="25" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J44"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="25" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>181219002</v>
+        <v>123123</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>

--- a/StoreManagement/ExcelSheets/stamp.xlsx
+++ b/StoreManagement/ExcelSheets/stamp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\StoreManagement\StoreManagement\ExcelSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tungk\Desktop\Github files\StoreManagement\StoreManagement\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A208763E-EA2A-45E9-9E41-4F7A062C6651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C805E6C7-0CF3-4D1E-B0BD-3DE9B3A1F616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1800" windowWidth="18870" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD082840-187A-4C49-8046-8EE401F4D966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2A2760-D8A2-429C-9E82-8DA4B5BF3FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
